--- a/updated_filtered_data_with_lengths_body-car.xlsx
+++ b/updated_filtered_data_with_lengths_body-car.xlsx
@@ -756,7 +756,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>67ceb46150bd2fca87f9131b</t>
+          <t>67d5fa05a81638bae93f1183</t>
         </is>
       </c>
       <c r="W2" t="n">
@@ -919,7 +919,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>67ceb46150bd2fca87f9131b</t>
+          <t>67d5fa05a81638bae93f1183</t>
         </is>
       </c>
       <c r="W3" t="n">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>67ceb46150bd2fca87f9131d</t>
+          <t>67d5fa05a81638bae93f1185</t>
         </is>
       </c>
       <c r="W4" t="n">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>67ceb45e50bd2fca87f911b2</t>
+          <t>67d5fa05a81638bae93f101a</t>
         </is>
       </c>
       <c r="W5" t="n">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>67ceb45e50bd2fca87f911b6</t>
+          <t>67d5fa05a81638bae93f101e</t>
         </is>
       </c>
       <c r="W6" t="n">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>67ceb45e50bd2fca87f911b4</t>
+          <t>67d5fa05a81638bae93f101c</t>
         </is>
       </c>
       <c r="W7" t="n">
@@ -1724,7 +1724,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S8" t="n">
-        <v>97.03797467389488</v>
+        <v>95.10610395956482</v>
       </c>
       <c r="T8" t="n">
         <v>514.9316657389987</v>
@@ -1734,11 +1734,11 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>67ceb45e50bd2fca87f911b8</t>
+          <t>67d5fa05a81638bae93f1020</t>
         </is>
       </c>
       <c r="W8" t="n">
-        <v>93.62920945507291</v>
+        <v>91.8040106572516</v>
       </c>
       <c r="X8" t="n">
         <v>650</v>
@@ -1764,22 +1764,22 @@
         <v>496.9460251099741</v>
       </c>
       <c r="AE8" t="n">
-        <v>14.97133913954703</v>
+        <v>12.73009891971904</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.354483990263209</v>
+        <v>5.238482377758244</v>
       </c>
       <c r="AG8" t="n">
-        <v>2.689504431022004</v>
+        <v>0.6876851149430416</v>
       </c>
       <c r="AH8" t="n">
-        <v>12.19220945507291</v>
+        <v>10.3670106572516</v>
       </c>
       <c r="AI8" t="n">
-        <v>3.249790544927095</v>
+        <v>5.07498934274841</v>
       </c>
       <c r="AJ8" t="n">
-        <v>2.452209455072932</v>
+        <v>0.627010657251617</v>
       </c>
       <c r="AK8" t="n">
         <v>12.23262163250699</v>
@@ -1800,22 +1800,22 @@
         <v>2.733827206978745</v>
       </c>
       <c r="AQ8" t="n">
-        <v>15.60097467389488</v>
+        <v>13.66910395956482</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.1589746738948747</v>
+        <v>1.772896040435185</v>
       </c>
       <c r="AS8" t="n">
-        <v>5.860974673894901</v>
+        <v>3.929103959564841</v>
       </c>
       <c r="AT8" t="n">
-        <v>19.15710877598006</v>
+        <v>16.78488151523856</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.1640961136003414</v>
+        <v>1.830010673556896</v>
       </c>
       <c r="AV8" t="n">
-        <v>6.428128446751816</v>
+        <v>4.309314804791605</v>
       </c>
       <c r="AW8" t="n">
         <v>0.9395716035029055</v>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>67ceb46250bd2fca87f91417</t>
+          <t>67d5fa06a81638bae93f127f</t>
         </is>
       </c>
       <c r="W9" t="n">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>67ceb46250bd2fca87f91417</t>
+          <t>67d5fa06a81638bae93f127f</t>
         </is>
       </c>
       <c r="W10" t="n">
@@ -2213,7 +2213,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S11" t="n">
-        <v>136.1015705663287</v>
+        <v>133.8723132801557</v>
       </c>
       <c r="T11" t="n">
         <v>723.4977819186519</v>
@@ -2223,7 +2223,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>67ceb46250bd2fca87f91417</t>
+          <t>67d5fa06a81638bae93f127f</t>
         </is>
       </c>
       <c r="W11" t="n">
@@ -2289,22 +2289,22 @@
         <v>17.28881819275082</v>
       </c>
       <c r="AQ11" t="n">
-        <v>17.64957056632869</v>
+        <v>15.42031328015565</v>
       </c>
       <c r="AR11" t="n">
-        <v>9.868570566328685</v>
+        <v>7.639313280155648</v>
       </c>
       <c r="AS11" t="n">
-        <v>11.26857056632866</v>
+        <v>9.039313280155625</v>
       </c>
       <c r="AT11" t="n">
-        <v>14.90018789579635</v>
+        <v>13.01819579251988</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.817742243572351</v>
+        <v>6.051756101935031</v>
       </c>
       <c r="AV11" t="n">
-        <v>9.026916413391218</v>
+        <v>7.241124766812961</v>
       </c>
       <c r="AW11" t="n">
         <v>0.9865906722786337</v>
@@ -2386,11 +2386,11 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>67ceb46450bd2fca87f9153d</t>
+          <t>67d5fa06a81638bae93f13a5</t>
         </is>
       </c>
       <c r="W12" t="n">
-        <v>135.8791743462225</v>
+        <v>134.4174181891756</v>
       </c>
       <c r="X12" t="n">
         <v>650</v>
@@ -2416,22 +2416,22 @@
         <v>724.3485012647983</v>
       </c>
       <c r="AE12" t="n">
-        <v>4.75935912465307</v>
+        <v>3.632382610808766</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.913880109249058</v>
+        <v>6.926036429043333</v>
       </c>
       <c r="AG12" t="n">
-        <v>1.991362993203592</v>
+        <v>3.045716828349937</v>
       </c>
       <c r="AH12" t="n">
-        <v>6.17317434622251</v>
+        <v>4.711418189175617</v>
       </c>
       <c r="AI12" t="n">
-        <v>8.540825653777489</v>
+        <v>10.00258181082438</v>
       </c>
       <c r="AJ12" t="n">
-        <v>2.760825653777459</v>
+        <v>4.222581810824352</v>
       </c>
       <c r="AK12" t="n">
         <v>6.826835791436508</v>
@@ -2539,7 +2539,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S13" t="n">
-        <v>133.9684712072329</v>
+        <v>132.5627623929429</v>
       </c>
       <c r="T13" t="n">
         <v>714.257474491412</v>
@@ -2549,11 +2549,11 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>67ceb46450bd2fca87f9153d</t>
+          <t>67d5fa06a81638bae93f13a5</t>
         </is>
       </c>
       <c r="W13" t="n">
-        <v>135.8791743462225</v>
+        <v>134.4174181891756</v>
       </c>
       <c r="X13" t="n">
         <v>650</v>
@@ -2579,22 +2579,22 @@
         <v>724.3485012647983</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.252756632902496</v>
+        <v>0.1635033228331263</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.432611928006992</v>
+        <v>3.482218911030172</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.7871162205510078</v>
+        <v>0.297127839624111</v>
       </c>
       <c r="AH13" t="n">
-        <v>1.681174346222491</v>
+        <v>0.2194181891755989</v>
       </c>
       <c r="AI13" t="n">
-        <v>3.387825653777497</v>
+        <v>4.84958181082439</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1.061174346222458</v>
+        <v>0.4005818108244341</v>
       </c>
       <c r="AK13" t="n">
         <v>2.33483579143649</v>
@@ -2615,22 +2615,22 @@
         <v>1.271963529674417</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.2295287927671552</v>
+        <v>1.635237607057121</v>
       </c>
       <c r="AR13" t="n">
-        <v>5.298528792767144</v>
+        <v>6.704237607057109</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.8495287927671882</v>
+        <v>2.255237607057154</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.1710374169265974</v>
+        <v>1.218526063769297</v>
       </c>
       <c r="AU13" t="n">
-        <v>3.804583133669243</v>
+        <v>4.81394559160254</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.6301300959569107</v>
+        <v>1.672801559923121</v>
       </c>
       <c r="AW13" t="n">
         <v>0.9968488699540865</v>
@@ -2712,7 +2712,7 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>67ceb46050bd2fca87f912f8</t>
+          <t>67d5fa05a81638bae93f1160</t>
         </is>
       </c>
       <c r="W14" t="n">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>67ceb46050bd2fca87f912f8</t>
+          <t>67d5fa05a81638bae93f1160</t>
         </is>
       </c>
       <c r="W15" t="n">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>67ceb46050bd2fca87f912f8</t>
+          <t>67d5fa05a81638bae93f1160</t>
         </is>
       </c>
       <c r="W16" t="n">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>67ceb46050bd2fca87f912f8</t>
+          <t>67d5fa05a81638bae93f1160</t>
         </is>
       </c>
       <c r="W17" t="n">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>67ceb46350bd2fca87f91469</t>
+          <t>67d5fa06a81638bae93f12d1</t>
         </is>
       </c>
       <c r="W18" t="n">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>67ceb46350bd2fca87f91469</t>
+          <t>67d5fa06a81638bae93f12d1</t>
         </is>
       </c>
       <c r="W19" t="n">
@@ -3690,7 +3690,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>67ceb45e50bd2fca87f91215</t>
+          <t>67d5fa05a81638bae93f107d</t>
         </is>
       </c>
       <c r="W20" t="n">
@@ -3851,7 +3851,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>67ceb45e50bd2fca87f91215</t>
+          <t>67d5fa05a81638bae93f107d</t>
         </is>
       </c>
       <c r="W21" t="n">
@@ -4012,7 +4012,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>67ceb45e50bd2fca87f91213</t>
+          <t>67d5fa05a81638bae93f107b</t>
         </is>
       </c>
       <c r="W22" t="n">
@@ -4175,7 +4175,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>67ceb45c50bd2fca87f91168</t>
+          <t>67d5fa05a81638bae93f0fd0</t>
         </is>
       </c>
       <c r="W23" t="n">
@@ -4328,7 +4328,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S24" t="n">
-        <v>115.0065634375614</v>
+        <v>112.7110941990061</v>
       </c>
       <c r="T24" t="n">
         <v>610.2663394354464</v>
@@ -4338,7 +4338,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>67ceb45c50bd2fca87f9116a</t>
+          <t>67d5fa05a81638bae93f0fd2</t>
         </is>
       </c>
       <c r="W24" t="n">
@@ -4404,22 +4404,22 @@
         <v>17.73000630362105</v>
       </c>
       <c r="AQ24" t="n">
-        <v>9.021563437561426</v>
+        <v>6.726094199006084</v>
       </c>
       <c r="AR24" t="n">
-        <v>2.089563437561424</v>
+        <v>0.2059058009939179</v>
       </c>
       <c r="AS24" t="n">
-        <v>7.339563437561424</v>
+        <v>5.044094199006082</v>
       </c>
       <c r="AT24" t="n">
-        <v>8.512113447715643</v>
+        <v>6.34626994292219</v>
       </c>
       <c r="AU24" t="n">
-        <v>1.850530422842817</v>
+        <v>0.1823514625733219</v>
       </c>
       <c r="AV24" t="n">
-        <v>6.816910880363921</v>
+        <v>4.684902708356397</v>
       </c>
       <c r="AW24" t="n">
         <v>0.971678568969233</v>
@@ -4501,7 +4501,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>67ceb45c50bd2fca87f9116a</t>
+          <t>67d5fa05a81638bae93f0fd2</t>
         </is>
       </c>
       <c r="W25" t="n">
@@ -4664,11 +4664,11 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>67ceb46050bd2fca87f912cd</t>
+          <t>67d5fa05a81638bae93f1135</t>
         </is>
       </c>
       <c r="W26" t="n">
-        <v>134.9056451174528</v>
+        <v>134.8401820917321</v>
       </c>
       <c r="X26" t="n">
         <v>650</v>
@@ -4694,22 +4694,22 @@
         <v>722.8619955675873</v>
       </c>
       <c r="AE26" t="n">
-        <v>29.19150485760112</v>
+        <v>29.12881462104331</v>
       </c>
       <c r="AF26" t="n">
-        <v>23.68381278359707</v>
+        <v>23.62379515712602</v>
       </c>
       <c r="AG26" t="n">
-        <v>27.89325779268018</v>
+        <v>27.83119753110176</v>
       </c>
       <c r="AH26" t="n">
-        <v>30.48264511745282</v>
+        <v>30.41718209173206</v>
       </c>
       <c r="AI26" t="n">
-        <v>25.83264511745283</v>
+        <v>25.76718209173207</v>
       </c>
       <c r="AJ26" t="n">
-        <v>29.42264511745283</v>
+        <v>29.35718209173207</v>
       </c>
       <c r="AK26" t="n">
         <v>31.82964353880402</v>
@@ -4827,7 +4827,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>67ceb46050bd2fca87f912cb</t>
+          <t>67d5fa05a81638bae93f1133</t>
         </is>
       </c>
       <c r="W27" t="n">
@@ -4990,7 +4990,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>67ceb46050bd2fca87f912d1</t>
+          <t>67d5fa05a81638bae93f1139</t>
         </is>
       </c>
       <c r="W28" t="n">
@@ -5153,11 +5153,11 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>67ceb46150bd2fca87f9136f</t>
+          <t>67d5fa05a81638bae93f11d7</t>
         </is>
       </c>
       <c r="W29" t="n">
-        <v>144.2585484291744</v>
+        <v>143.9017792239851</v>
       </c>
       <c r="X29" t="n">
         <v>650</v>
@@ -5183,22 +5183,22 @@
         <v>772.2095468935402</v>
       </c>
       <c r="AE29" t="n">
-        <v>21.53614985271144</v>
+        <v>21.23557594525941</v>
       </c>
       <c r="AF29" t="n">
-        <v>15.58530245032279</v>
+        <v>15.29944572338499</v>
       </c>
       <c r="AG29" t="n">
-        <v>21.40011986061852</v>
+        <v>21.09988237213568</v>
       </c>
       <c r="AH29" t="n">
-        <v>25.56254842917437</v>
+        <v>25.2057792239851</v>
       </c>
       <c r="AI29" t="n">
-        <v>19.45154842917437</v>
+        <v>19.0947792239851</v>
       </c>
       <c r="AJ29" t="n">
-        <v>25.42954842917437</v>
+        <v>25.07277922398511</v>
       </c>
       <c r="AK29" t="n">
         <v>26.85818983886708</v>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>67ceb46150bd2fca87f91371</t>
+          <t>67d5fa05a81638bae93f11d9</t>
         </is>
       </c>
       <c r="W30" t="n">
@@ -5479,7 +5479,7 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>67ceb46150bd2fca87f91375</t>
+          <t>67d5fa05a81638bae93f11dd</t>
         </is>
       </c>
       <c r="W31" t="n">
@@ -5640,7 +5640,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>67ceb46150bd2fca87f91371</t>
+          <t>67d5fa05a81638bae93f11d9</t>
         </is>
       </c>
       <c r="W32" t="n">
@@ -5803,7 +5803,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>67ceb46150bd2fca87f91379</t>
+          <t>67d5fa05a81638bae93f11e1</t>
         </is>
       </c>
       <c r="W33" t="n">
@@ -5964,7 +5964,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>67ceb45e50bd2fca87f911db</t>
+          <t>67d5fa05a81638bae93f1043</t>
         </is>
       </c>
       <c r="W34" t="n">
@@ -6127,7 +6127,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>67ceb45e50bd2fca87f911db</t>
+          <t>67d5fa05a81638bae93f1043</t>
         </is>
       </c>
       <c r="W35" t="n">
@@ -6290,7 +6290,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>67ceb45e50bd2fca87f911db</t>
+          <t>67d5fa05a81638bae93f1043</t>
         </is>
       </c>
       <c r="W36" t="n">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>67ceb46150bd2fca87f9133a</t>
+          <t>67d5fa05a81638bae93f11a2</t>
         </is>
       </c>
       <c r="W37" t="n">
@@ -6606,7 +6606,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S38" t="n">
-        <v>154.7893645889469</v>
+        <v>154.1912744126589</v>
       </c>
       <c r="T38" t="n">
         <v>828.0045532795153</v>
@@ -6616,11 +6616,11 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>67ceb46150bd2fca87f9133e</t>
+          <t>67d5fa05a81638bae93f11a6</t>
         </is>
       </c>
       <c r="W38" t="n">
-        <v>128.2519568650085</v>
+        <v>127.1152944852746</v>
       </c>
       <c r="X38" t="n">
         <v>650</v>
@@ -6646,22 +6646,22 @@
         <v>684.3371999383471</v>
       </c>
       <c r="AE38" t="n">
-        <v>2.786581338415951</v>
+        <v>1.875611689260358</v>
       </c>
       <c r="AF38" t="n">
-        <v>5.917768715286556</v>
+        <v>6.751594065922852</v>
       </c>
       <c r="AG38" t="n">
-        <v>5.674896398411049</v>
+        <v>6.510874260653556</v>
       </c>
       <c r="AH38" t="n">
-        <v>3.476956865008503</v>
+        <v>2.340294485274612</v>
       </c>
       <c r="AI38" t="n">
-        <v>8.067043134991479</v>
+        <v>9.203705514725371</v>
       </c>
       <c r="AJ38" t="n">
-        <v>7.716043134991537</v>
+        <v>8.852705514725429</v>
       </c>
       <c r="AK38" t="n">
         <v>4.21608423915572</v>
@@ -6682,22 +6682,22 @@
         <v>5.131292481204635</v>
       </c>
       <c r="AQ38" t="n">
-        <v>30.01436458894685</v>
+        <v>29.41627441265894</v>
       </c>
       <c r="AR38" t="n">
-        <v>18.47036458894686</v>
+        <v>17.87227441265895</v>
       </c>
       <c r="AS38" t="n">
-        <v>18.82136458894681</v>
+        <v>18.2232744126589</v>
       </c>
       <c r="AT38" t="n">
-        <v>24.05479029368611</v>
+        <v>23.57545534975671</v>
       </c>
       <c r="AU38" t="n">
-        <v>13.54936919207657</v>
+        <v>13.11062611423129</v>
       </c>
       <c r="AV38" t="n">
-        <v>13.84249572616116</v>
+        <v>13.40262003755214</v>
       </c>
       <c r="AW38" t="n">
         <v>0.9775142595128198</v>
@@ -6779,7 +6779,7 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>67ceb46150bd2fca87f91338</t>
+          <t>67d5fa05a81638bae93f11a0</t>
         </is>
       </c>
       <c r="W39" t="n">
@@ -6942,11 +6942,11 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>67ceb46150bd2fca87f9133e</t>
+          <t>67d5fa05a81638bae93f11a6</t>
         </is>
       </c>
       <c r="W40" t="n">
-        <v>128.2519568650085</v>
+        <v>127.1152944852746</v>
       </c>
       <c r="X40" t="n">
         <v>650</v>
@@ -6972,22 +6972,22 @@
         <v>684.3371999383471</v>
       </c>
       <c r="AE40" t="n">
-        <v>15.47572288501091</v>
+        <v>14.45229280889813</v>
       </c>
       <c r="AF40" t="n">
-        <v>1.365714698403867</v>
+        <v>0.467337805692688</v>
       </c>
       <c r="AG40" t="n">
-        <v>4.528229824125082</v>
+        <v>3.601824415852692</v>
       </c>
       <c r="AH40" t="n">
-        <v>17.18795686500852</v>
+        <v>16.05129448527462</v>
       </c>
       <c r="AI40" t="n">
-        <v>1.727956865008508</v>
+        <v>0.5912944852746165</v>
       </c>
       <c r="AJ40" t="n">
-        <v>5.555956865008511</v>
+        <v>4.419294485274619</v>
       </c>
       <c r="AK40" t="n">
         <v>17.92708423915573</v>
@@ -7095,7 +7095,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S41" t="n">
-        <v>157.8451580676162</v>
+        <v>155.8450215814539</v>
       </c>
       <c r="T41" t="n">
         <v>840.6406663107607</v>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>67ceb46150bd2fca87f91338</t>
+          <t>67d5fa05a81638bae93f11a0</t>
         </is>
       </c>
       <c r="W41" t="n">
@@ -7171,22 +7171,22 @@
         <v>22.0109589204606</v>
       </c>
       <c r="AQ41" t="n">
-        <v>17.88715806761618</v>
+        <v>15.88702158145387</v>
       </c>
       <c r="AR41" t="n">
-        <v>4.591158067616192</v>
+        <v>2.591021581453873</v>
       </c>
       <c r="AS41" t="n">
-        <v>6.543158067616133</v>
+        <v>4.543021581453814</v>
       </c>
       <c r="AT41" t="n">
-        <v>12.78037558954557</v>
+        <v>11.3512779415638</v>
       </c>
       <c r="AU41" t="n">
-        <v>2.9957835146986</v>
+        <v>1.690671422249255</v>
       </c>
       <c r="AV41" t="n">
-        <v>4.324568127067805</v>
+        <v>3.002618327222253</v>
       </c>
       <c r="AW41" t="n">
         <v>0.9933641252925921</v>
@@ -7268,7 +7268,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>67ceb46350bd2fca87f91432</t>
+          <t>67d5fa06a81638bae93f129a</t>
         </is>
       </c>
       <c r="W42" t="n">
@@ -7421,7 +7421,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S43" t="n">
-        <v>151.1523372766826</v>
+        <v>149.4689984157467</v>
       </c>
       <c r="T43" t="n">
         <v>805.6144603504836</v>
@@ -7431,11 +7431,11 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>67ceb46350bd2fca87f91434</t>
+          <t>67d5fa06a81638bae93f129c</t>
         </is>
       </c>
       <c r="W43" t="n">
-        <v>150.6702342095505</v>
+        <v>148.6555919020909</v>
       </c>
       <c r="X43" t="n">
         <v>650</v>
@@ -7461,22 +7461,22 @@
         <v>802.1483064765272</v>
       </c>
       <c r="AE43" t="n">
-        <v>20.93478843030672</v>
+        <v>19.31774480856176</v>
       </c>
       <c r="AF43" t="n">
-        <v>15.83780595798457</v>
+        <v>14.28891512423382</v>
       </c>
       <c r="AG43" t="n">
-        <v>15.92693253023818</v>
+        <v>14.37684996698542</v>
       </c>
       <c r="AH43" t="n">
-        <v>26.08223420955053</v>
+        <v>24.06759190209092</v>
       </c>
       <c r="AI43" t="n">
-        <v>20.60023420955054</v>
+        <v>18.58559190209093</v>
       </c>
       <c r="AJ43" t="n">
-        <v>20.70023420955056</v>
+        <v>18.68559190209095</v>
       </c>
       <c r="AK43" t="n">
         <v>26.60936261938059</v>
@@ -7497,22 +7497,22 @@
         <v>16.33250951710442</v>
       </c>
       <c r="AQ43" t="n">
-        <v>26.56433727668258</v>
+        <v>24.88099841574669</v>
       </c>
       <c r="AR43" t="n">
-        <v>21.08233727668258</v>
+        <v>19.39899841574669</v>
       </c>
       <c r="AS43" t="n">
-        <v>21.1823372766826</v>
+        <v>19.49899841574671</v>
       </c>
       <c r="AT43" t="n">
-        <v>21.32174629714144</v>
+        <v>19.97062190238762</v>
       </c>
       <c r="AU43" t="n">
-        <v>16.20845489096839</v>
+        <v>14.91427570980756</v>
       </c>
       <c r="AV43" t="n">
-        <v>16.29786664359668</v>
+        <v>15.00269171019983</v>
       </c>
       <c r="AW43" t="n">
         <v>0.9974255915747962</v>
@@ -7594,7 +7594,7 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>67ceb46350bd2fca87f9143a</t>
+          <t>67d5fa06a81638bae93f12a2</t>
         </is>
       </c>
       <c r="W44" t="n">
@@ -7757,11 +7757,11 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>67ceb46350bd2fca87f91436</t>
+          <t>67d5fa06a81638bae93f129e</t>
         </is>
       </c>
       <c r="W45" t="n">
-        <v>110.4484609573795</v>
+        <v>108.849318145936</v>
       </c>
       <c r="X45" t="n">
         <v>650</v>
@@ -7787,22 +7787,22 @@
         <v>587.6874605708431</v>
       </c>
       <c r="AE45" t="n">
-        <v>5.266012833756941</v>
+        <v>6.637631535032764</v>
       </c>
       <c r="AF45" t="n">
-        <v>17.26707044391052</v>
+        <v>18.4649302277633</v>
       </c>
       <c r="AG45" t="n">
-        <v>14.41487399758281</v>
+        <v>15.65402968908729</v>
       </c>
       <c r="AH45" t="n">
-        <v>6.139539042620541</v>
+        <v>7.738681854063998</v>
       </c>
       <c r="AI45" t="n">
-        <v>23.05153904262055</v>
+        <v>24.650681854064</v>
       </c>
       <c r="AJ45" t="n">
-        <v>18.60253904262059</v>
+        <v>20.20168185406405</v>
       </c>
       <c r="AK45" t="n">
         <v>5.814476743309257</v>
@@ -7910,7 +7910,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S46" t="n">
-        <v>141.9414812542173</v>
+        <v>141.3907744909647</v>
       </c>
       <c r="T46" t="n">
         <v>759.272173952114</v>
@@ -7920,7 +7920,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>67ceb46250bd2fca87f913b1</t>
+          <t>67d5fa05a81638bae93f1219</t>
         </is>
       </c>
       <c r="W46" t="n">
@@ -7986,22 +7986,22 @@
         <v>11.1207393930606</v>
       </c>
       <c r="AQ46" t="n">
-        <v>14.03048125421725</v>
+        <v>13.47977449096473</v>
       </c>
       <c r="AR46" t="n">
-        <v>3.23351874578276</v>
+        <v>3.784225509035281</v>
       </c>
       <c r="AS46" t="n">
-        <v>7.725481254217243</v>
+        <v>7.174774490964722</v>
       </c>
       <c r="AT46" t="n">
-        <v>10.96894032117429</v>
+        <v>10.53840130322234</v>
       </c>
       <c r="AU46" t="n">
-        <v>2.227324777532468</v>
+        <v>2.606664721222856</v>
       </c>
       <c r="AV46" t="n">
-        <v>5.756006179752967</v>
+        <v>5.345692384637243</v>
       </c>
       <c r="AW46" t="n">
         <v>0.9953357480194698</v>
@@ -8083,7 +8083,7 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>67ceb46250bd2fca87f913b1</t>
+          <t>67d5fa05a81638bae93f1219</t>
         </is>
       </c>
       <c r="W47" t="n">
@@ -8246,7 +8246,7 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>67ceb46250bd2fca87f913b5</t>
+          <t>67d5fa05a81638bae93f121d</t>
         </is>
       </c>
       <c r="W48" t="n">
@@ -8399,7 +8399,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S49" t="n">
-        <v>115.8861695437022</v>
+        <v>113.6389608020369</v>
       </c>
       <c r="T49" t="n">
         <v>615.1084615374929</v>
@@ -8409,7 +8409,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>67ceb46250bd2fca87f913b3</t>
+          <t>67d5fa05a81638bae93f121b</t>
         </is>
       </c>
       <c r="W49" t="n">
@@ -8475,22 +8475,22 @@
         <v>20.34224765738023</v>
       </c>
       <c r="AQ49" t="n">
-        <v>29.62916954370222</v>
+        <v>27.38196080203689</v>
       </c>
       <c r="AR49" t="n">
-        <v>12.87716954370222</v>
+        <v>10.62996080203689</v>
       </c>
       <c r="AS49" t="n">
-        <v>20.41016954370221</v>
+        <v>18.16296080203688</v>
       </c>
       <c r="AT49" t="n">
-        <v>34.34987252478317</v>
+        <v>31.74462455457167</v>
       </c>
       <c r="AU49" t="n">
-        <v>12.50101403149455</v>
+        <v>10.319448593848</v>
       </c>
       <c r="AV49" t="n">
-        <v>21.37727758148876</v>
+        <v>19.02358791951577</v>
       </c>
       <c r="AW49" t="n">
         <v>0.9322114831822448</v>
@@ -8756,7 +8756,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S52" t="n">
-        <v>119.5081991142444</v>
+        <v>118.8986913207108</v>
       </c>
       <c r="T52" t="n">
         <v>638.8823155755759</v>
@@ -8766,7 +8766,7 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>67ceb46550bd2fca87f91552</t>
+          <t>67d5fa06a81638bae93f13ba</t>
         </is>
       </c>
       <c r="W52" t="n">
@@ -8832,22 +8832,22 @@
         <v>34.94707771608942</v>
       </c>
       <c r="AQ52" t="n">
-        <v>27.71819911424444</v>
+        <v>27.10869132071083</v>
       </c>
       <c r="AR52" t="n">
-        <v>13.36619911424445</v>
+        <v>12.75669132071084</v>
       </c>
       <c r="AS52" t="n">
-        <v>25.18019911424447</v>
+        <v>24.57069132071086</v>
       </c>
       <c r="AT52" t="n">
-        <v>30.19740615997869</v>
+        <v>29.53338198138232</v>
       </c>
       <c r="AU52" t="n">
-        <v>12.59275226983141</v>
+        <v>12.01851417978825</v>
       </c>
       <c r="AV52" t="n">
-        <v>26.69429979883436</v>
+        <v>26.04814193103942</v>
       </c>
       <c r="AW52" t="n">
         <v>0.9802583509358886</v>
@@ -8929,7 +8929,7 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>67ceb46550bd2fca87f91552</t>
+          <t>67d5fa06a81638bae93f13ba</t>
         </is>
       </c>
       <c r="W53" t="n">
@@ -9082,7 +9082,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S54" t="n">
-        <v>133.3677836372026</v>
+        <v>130.6869599830002</v>
       </c>
       <c r="T54" t="n">
         <v>707.647536688492</v>
@@ -9092,7 +9092,7 @@
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>67ceb46550bd2fca87f91550</t>
+          <t>67d5fa06a81638bae93f13b8</t>
         </is>
       </c>
       <c r="W54" t="n">
@@ -9158,22 +9158,22 @@
         <v>13.04778952123361</v>
       </c>
       <c r="AQ54" t="n">
-        <v>19.67078363720256</v>
+        <v>16.98995998300015</v>
       </c>
       <c r="AR54" t="n">
-        <v>13.19478363720256</v>
+        <v>10.51395998300015</v>
       </c>
       <c r="AS54" t="n">
-        <v>16.80978363720257</v>
+        <v>14.12895998300016</v>
       </c>
       <c r="AT54" t="n">
-        <v>17.30105775631948</v>
+        <v>14.94319109827009</v>
       </c>
       <c r="AU54" t="n">
-        <v>10.97982378504536</v>
+        <v>8.749020148452772</v>
       </c>
       <c r="AV54" t="n">
-        <v>14.42181886889152</v>
+        <v>12.12182774498547</v>
       </c>
       <c r="AW54" t="n">
         <v>0.9033624562355251</v>
@@ -9245,7 +9245,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S55" t="n">
-        <v>81.14682920502048</v>
+        <v>79.51781552538435</v>
       </c>
       <c r="T55" t="n">
         <v>430.5695219198405</v>
@@ -9255,7 +9255,7 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>67ceb46250bd2fca87f913ed</t>
+          <t>67d5fa05a81638bae93f1255</t>
         </is>
       </c>
       <c r="W55" t="n">
@@ -9321,22 +9321,22 @@
         <v>10.26201082263168</v>
       </c>
       <c r="AQ55" t="n">
-        <v>18.11282920502048</v>
+        <v>16.48381552538435</v>
       </c>
       <c r="AR55" t="n">
-        <v>10.56282920502048</v>
+        <v>8.933815525384347</v>
       </c>
       <c r="AS55" t="n">
-        <v>12.36682920502048</v>
+        <v>10.73781552538435</v>
       </c>
       <c r="AT55" t="n">
-        <v>28.73501476190704</v>
+        <v>26.15067348634761</v>
       </c>
       <c r="AU55" t="n">
-        <v>14.96490593480176</v>
+        <v>12.65699808084601</v>
       </c>
       <c r="AV55" t="n">
-        <v>17.98026927162035</v>
+        <v>15.61182833001505</v>
       </c>
       <c r="AW55" t="n">
         <v>0.9176860584122319</v>
@@ -9418,7 +9418,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>67ceb46250bd2fca87f913ef</t>
+          <t>67d5fa05a81638bae93f1257</t>
         </is>
       </c>
       <c r="W56" t="n">
@@ -9581,7 +9581,7 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>67ceb46250bd2fca87f913e9</t>
+          <t>67d5fa05a81638bae93f1251</t>
         </is>
       </c>
       <c r="W57" t="n">
@@ -9744,7 +9744,7 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>67ceb46350bd2fca87f914b1</t>
+          <t>67d5fa06a81638bae93f1319</t>
         </is>
       </c>
       <c r="W58" t="n">
@@ -9907,7 +9907,7 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>67ceb46350bd2fca87f914b1</t>
+          <t>67d5fa06a81638bae93f1319</t>
         </is>
       </c>
       <c r="W59" t="n">
@@ -10070,7 +10070,7 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>67ceb46350bd2fca87f914b7</t>
+          <t>67d5fa06a81638bae93f131f</t>
         </is>
       </c>
       <c r="W60" t="n">
@@ -10233,7 +10233,7 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>67ceb46350bd2fca87f914b3</t>
+          <t>67d5fa06a81638bae93f131b</t>
         </is>
       </c>
       <c r="W61" t="n">
@@ -10396,7 +10396,7 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>67ceb45f50bd2fca87f91257</t>
+          <t>67d5fa05a81638bae93f10bf</t>
         </is>
       </c>
       <c r="W62" t="n">
@@ -10559,7 +10559,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>67ceb45f50bd2fca87f91255</t>
+          <t>67d5fa05a81638bae93f10bd</t>
         </is>
       </c>
       <c r="W63" t="n">
@@ -10722,7 +10722,7 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>67ceb45f50bd2fca87f91253</t>
+          <t>67d5fa05a81638bae93f10bb</t>
         </is>
       </c>
       <c r="W64" t="n">
@@ -10885,7 +10885,7 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>67ceb45f50bd2fca87f91289</t>
+          <t>67d5fa05a81638bae93f10f1</t>
         </is>
       </c>
       <c r="W65" t="n">
@@ -11046,7 +11046,7 @@
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>67ceb45f50bd2fca87f91289</t>
+          <t>67d5fa05a81638bae93f10f1</t>
         </is>
       </c>
       <c r="W66" t="n">
@@ -11207,7 +11207,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>67ceb45f50bd2fca87f91276</t>
+          <t>67d5fa05a81638bae93f10de</t>
         </is>
       </c>
       <c r="W67" t="n">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>67ceb45f50bd2fca87f91276</t>
+          <t>67d5fa05a81638bae93f10de</t>
         </is>
       </c>
       <c r="W68" t="n">
@@ -11529,7 +11529,7 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>67ceb46450bd2fca87f914de</t>
+          <t>67d5fa06a81638bae93f1346</t>
         </is>
       </c>
       <c r="W69" t="n">
@@ -11692,7 +11692,7 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>67ceb46450bd2fca87f914e0</t>
+          <t>67d5fa06a81638bae93f1348</t>
         </is>
       </c>
       <c r="W70" t="n">
@@ -11855,7 +11855,7 @@
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>67ceb46450bd2fca87f914e0</t>
+          <t>67d5fa06a81638bae93f1348</t>
         </is>
       </c>
       <c r="W71" t="n">
@@ -12008,7 +12008,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S72" t="n">
-        <v>133.1252973184184</v>
+        <v>130.4740364171812</v>
       </c>
       <c r="T72" t="n">
         <v>706.4263959549579</v>
@@ -12018,11 +12018,11 @@
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>67ceb45f50bd2fca87f912a2</t>
+          <t>67d5fa05a81638bae93f110a</t>
         </is>
       </c>
       <c r="W72" t="n">
-        <v>113.268169124567</v>
+        <v>112.827110534062</v>
       </c>
       <c r="X72" t="n">
         <v>650</v>
@@ -12048,22 +12048,22 @@
         <v>605.8888580259444</v>
       </c>
       <c r="AE72" t="n">
-        <v>3.289615760993307</v>
+        <v>3.666199456918932</v>
       </c>
       <c r="AF72" t="n">
-        <v>20.04900818470338</v>
+        <v>20.36033193993028</v>
       </c>
       <c r="AG72" t="n">
-        <v>7.37058976900169</v>
+        <v>7.731282428127025</v>
       </c>
       <c r="AH72" t="n">
-        <v>3.852830875432971</v>
+        <v>4.293889465938022</v>
       </c>
       <c r="AI72" t="n">
-        <v>28.40383087543297</v>
+        <v>28.84488946593802</v>
       </c>
       <c r="AJ72" t="n">
-        <v>9.012830875432954</v>
+        <v>9.453889465938005</v>
       </c>
       <c r="AK72" t="n">
         <v>2.91668561780439</v>
@@ -12084,22 +12084,22 @@
         <v>6.605020909057314</v>
       </c>
       <c r="AQ72" t="n">
-        <v>16.00429731841838</v>
+        <v>13.3530364171812</v>
       </c>
       <c r="AR72" t="n">
-        <v>8.546702681581621</v>
+        <v>11.1979635828188</v>
       </c>
       <c r="AS72" t="n">
-        <v>10.8442973184184</v>
+        <v>8.193036417181219</v>
       </c>
       <c r="AT72" t="n">
-        <v>13.66475467116775</v>
+        <v>11.40106079796211</v>
       </c>
       <c r="AU72" t="n">
-        <v>6.032739483865281</v>
+        <v>7.904147314090859</v>
       </c>
       <c r="AV72" t="n">
-        <v>8.868342030583982</v>
+        <v>6.700171258970093</v>
       </c>
       <c r="AW72" t="n">
         <v>0.9914292020377879</v>
@@ -12171,7 +12171,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S73" t="n">
-        <v>133.4334365266837</v>
+        <v>133.071257438669</v>
       </c>
       <c r="T73" t="n">
         <v>714.1770796768891</v>
@@ -12181,11 +12181,11 @@
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>67ceb45f50bd2fca87f912a2</t>
+          <t>67d5fa05a81638bae93f110a</t>
         </is>
       </c>
       <c r="W73" t="n">
-        <v>113.268169124567</v>
+        <v>112.827110534062</v>
       </c>
       <c r="X73" t="n">
         <v>650</v>
@@ -12211,22 +12211,22 @@
         <v>605.8888580259444</v>
       </c>
       <c r="AE73" t="n">
-        <v>3.725281447189546</v>
+        <v>4.100168690396192</v>
       </c>
       <c r="AF73" t="n">
-        <v>20.85624410477649</v>
+        <v>21.16442453792213</v>
       </c>
       <c r="AG73" t="n">
-        <v>5.949225607128442</v>
+        <v>6.315452962176519</v>
       </c>
       <c r="AH73" t="n">
-        <v>4.382830875432973</v>
+        <v>4.823889465938024</v>
       </c>
       <c r="AI73" t="n">
-        <v>29.84883087543297</v>
+        <v>30.28988946593802</v>
       </c>
       <c r="AJ73" t="n">
-        <v>7.164830875432997</v>
+        <v>7.605889465938048</v>
       </c>
       <c r="AK73" t="n">
         <v>3.446685617804391</v>
@@ -12247,22 +12247,22 @@
         <v>5.171909375174923</v>
       </c>
       <c r="AQ73" t="n">
-        <v>15.7824365266837</v>
+        <v>15.420257438669</v>
       </c>
       <c r="AR73" t="n">
-        <v>9.683563473316298</v>
+        <v>10.045742561331</v>
       </c>
       <c r="AS73" t="n">
-        <v>13.00043652668367</v>
+        <v>12.63825743866897</v>
       </c>
       <c r="AT73" t="n">
-        <v>13.41462165785561</v>
+        <v>13.10677974574716</v>
       </c>
       <c r="AU73" t="n">
-        <v>6.766186737645631</v>
+        <v>7.019251773954874</v>
       </c>
       <c r="AV73" t="n">
-        <v>10.79474606352384</v>
+        <v>10.49401529370602</v>
       </c>
       <c r="AW73" t="n">
         <v>0.9914292020377879</v>
@@ -12344,7 +12344,7 @@
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>67ceb45f50bd2fca87f912a4</t>
+          <t>67d5fa05a81638bae93f110c</t>
         </is>
       </c>
       <c r="W74" t="n">
@@ -12507,7 +12507,7 @@
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>67ceb45f50bd2fca87f912a4</t>
+          <t>67d5fa05a81638bae93f110c</t>
         </is>
       </c>
       <c r="W75" t="n">
@@ -12670,7 +12670,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>67ceb46550bd2fca87f9157a</t>
+          <t>67d5fa06a81638bae93f13e2</t>
         </is>
       </c>
       <c r="W76" t="n">
@@ -12833,7 +12833,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>67ceb46550bd2fca87f9157a</t>
+          <t>67d5fa06a81638bae93f13e2</t>
         </is>
       </c>
       <c r="W77" t="n">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>67ceb46550bd2fca87f9157c</t>
+          <t>67d5fa06a81638bae93f13e4</t>
         </is>
       </c>
       <c r="W78" t="n">
@@ -13159,7 +13159,7 @@
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>67ceb46550bd2fca87f9157c</t>
+          <t>67d5fa06a81638bae93f13e4</t>
         </is>
       </c>
       <c r="W79" t="n">
@@ -13322,7 +13322,7 @@
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>67ceb45f50bd2fca87f9123f</t>
+          <t>67d5fa05a81638bae93f10a7</t>
         </is>
       </c>
       <c r="W80" t="n">
@@ -13475,7 +13475,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S81" t="n">
-        <v>78.70324874175196</v>
+        <v>77.84719426407564</v>
       </c>
       <c r="T81" t="n">
         <v>389.5621507556656</v>
@@ -13485,11 +13485,11 @@
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>67ceb46550bd2fca87f915a1</t>
+          <t>67d5fa06a81638bae93f1409</t>
         </is>
       </c>
       <c r="W81" t="n">
-        <v>57.27494653523053</v>
+        <v>56.13239704096716</v>
       </c>
       <c r="X81" t="n">
         <v>700</v>
@@ -13515,22 +13515,22 @@
         <v>282.2144054038681</v>
       </c>
       <c r="AE81" t="n">
-        <v>11.99166161860119</v>
+        <v>13.74729629993213</v>
       </c>
       <c r="AF81" t="n">
-        <v>28.29786735533679</v>
+        <v>29.72821762795333</v>
       </c>
       <c r="AG81" t="n">
-        <v>20.52982956358239</v>
+        <v>22.115140568374</v>
       </c>
       <c r="AH81" t="n">
-        <v>7.804053464769467</v>
+        <v>8.94660295903283</v>
       </c>
       <c r="AI81" t="n">
-        <v>22.60405346476948</v>
+        <v>23.74660295903284</v>
       </c>
       <c r="AJ81" t="n">
-        <v>14.79605346476946</v>
+        <v>15.93860295903282</v>
       </c>
       <c r="AK81" t="n">
         <v>7.79235264598249</v>
@@ -13551,22 +13551,22 @@
         <v>20.51359443601793</v>
       </c>
       <c r="AQ81" t="n">
-        <v>13.62424874175197</v>
+        <v>12.76819426407565</v>
       </c>
       <c r="AR81" t="n">
-        <v>1.175751258248042</v>
+        <v>2.031805735924365</v>
       </c>
       <c r="AS81" t="n">
-        <v>6.63224874175198</v>
+        <v>5.776194264075656</v>
       </c>
       <c r="AT81" t="n">
-        <v>20.9349386772261</v>
+        <v>19.6195305153362</v>
       </c>
       <c r="AU81" t="n">
-        <v>1.471915344769015</v>
+        <v>2.543604371517377</v>
       </c>
       <c r="AV81" t="n">
-        <v>9.202382014613342</v>
+        <v>8.014588758412755</v>
       </c>
       <c r="AW81" t="n">
         <v>0.8915111370091595</v>
@@ -13648,7 +13648,7 @@
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>67ceb46550bd2fca87f9159f</t>
+          <t>67d5fa06a81638bae93f1407</t>
         </is>
       </c>
       <c r="W82" t="n">
@@ -13801,7 +13801,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S83" t="n">
-        <v>50.69749893177121</v>
+        <v>50.11877108699561</v>
       </c>
       <c r="T83" t="n">
         <v>250.8728952381469</v>
@@ -13811,7 +13811,7 @@
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>67ceb46550bd2fca87f9159f</t>
+          <t>67d5fa06a81638bae93f1407</t>
         </is>
       </c>
       <c r="W83" t="n">
@@ -13877,22 +13877,22 @@
         <v>4.973801373141594</v>
       </c>
       <c r="AQ83" t="n">
-        <v>16.29649893177121</v>
+        <v>15.71777108699561</v>
       </c>
       <c r="AR83" t="n">
-        <v>11.53449893177122</v>
+        <v>10.95577108699562</v>
       </c>
       <c r="AS83" t="n">
-        <v>13.79649893177122</v>
+        <v>13.21777108699562</v>
       </c>
       <c r="AT83" t="n">
-        <v>47.37216630845385</v>
+        <v>45.68986682653298</v>
       </c>
       <c r="AU83" t="n">
-        <v>29.45254176587907</v>
+        <v>27.97480041619799</v>
       </c>
       <c r="AV83" t="n">
-        <v>37.3878727724756</v>
+        <v>35.81954713150218</v>
       </c>
       <c r="AW83" t="n">
         <v>0.7430997311811626</v>
@@ -13974,7 +13974,7 @@
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>67ceb46350bd2fca87f91480</t>
+          <t>67d5fa06a81638bae93f12e8</t>
         </is>
       </c>
       <c r="W84" t="n">
@@ -14135,7 +14135,7 @@
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>67ceb46350bd2fca87f91480</t>
+          <t>67d5fa06a81638bae93f12e8</t>
         </is>
       </c>
       <c r="W85" t="n">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>67ceb46350bd2fca87f91493</t>
+          <t>67d5fa06a81638bae93f12fb</t>
         </is>
       </c>
       <c r="W86" t="n">
@@ -14459,7 +14459,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>67ceb46550bd2fca87f9156d</t>
+          <t>67d5fa06a81638bae93f13d5</t>
         </is>
       </c>
       <c r="W87" t="n">
@@ -14622,7 +14622,7 @@
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>67ceb46350bd2fca87f914a6</t>
+          <t>67d5fa06a81638bae93f130e</t>
         </is>
       </c>
       <c r="W88" t="n">
@@ -14775,7 +14775,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S89" t="n">
-        <v>114.9791543785689</v>
+        <v>113.0548898039532</v>
       </c>
       <c r="T89" t="n">
         <v>611.1049422432292</v>
@@ -14785,7 +14785,7 @@
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>67ceb45e50bd2fca87f911fc</t>
+          <t>67d5fa05a81638bae93f1064</t>
         </is>
       </c>
       <c r="W89" t="n">
@@ -14851,22 +14851,22 @@
         <v>636.793787048114</v>
       </c>
       <c r="AQ89" t="n">
-        <v>20.24715437856895</v>
+        <v>18.32288980395317</v>
       </c>
       <c r="AR89" t="n">
-        <v>2.654154378568947</v>
+        <v>0.7298898039531707</v>
       </c>
       <c r="AS89" t="n">
-        <v>12.40415437856895</v>
+        <v>10.47988980395317</v>
       </c>
       <c r="AT89" t="n">
-        <v>21.37308869080031</v>
+        <v>19.34181670813788</v>
       </c>
       <c r="AU89" t="n">
-        <v>2.36292399605515</v>
+        <v>0.6498017395532346</v>
       </c>
       <c r="AV89" t="n">
-        <v>12.09276566275305</v>
+        <v>10.21680702310814</v>
       </c>
       <c r="AW89" t="n">
         <v>0.7434270333972781</v>
@@ -14948,7 +14948,7 @@
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>67ceb45e50bd2fca87f911fe</t>
+          <t>67d5fa05a81638bae93f1066</t>
         </is>
       </c>
       <c r="W90" t="n">
@@ -15111,7 +15111,7 @@
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>67ceb45d50bd2fca87f9118d</t>
+          <t>67d5fa05a81638bae93f0ff5</t>
         </is>
       </c>
       <c r="W91" t="n">
@@ -15264,7 +15264,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S92" t="n">
-        <v>153.4429163968209</v>
+        <v>150.3679485412647</v>
       </c>
       <c r="T92" t="n">
         <v>814.1907971102211</v>
@@ -15274,7 +15274,7 @@
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>67ceb45d50bd2fca87f91187</t>
+          <t>67d5fa05a81638bae93f0fef</t>
         </is>
       </c>
       <c r="W92" t="n">
@@ -15340,22 +15340,22 @@
         <v>7.891512536188003</v>
       </c>
       <c r="AQ92" t="n">
-        <v>19.27891639682088</v>
+        <v>16.20394854126471</v>
       </c>
       <c r="AR92" t="n">
-        <v>13.21891639682087</v>
+        <v>10.14394854126471</v>
       </c>
       <c r="AS92" t="n">
-        <v>16.48891639682085</v>
+        <v>13.41394854126469</v>
       </c>
       <c r="AT92" t="n">
-        <v>14.3696642890946</v>
+        <v>12.07771722762046</v>
       </c>
       <c r="AU92" t="n">
-        <v>9.426999940681249</v>
+        <v>7.23410296473122</v>
       </c>
       <c r="AV92" t="n">
-        <v>12.039747942244</v>
+        <v>9.794491976331241</v>
       </c>
       <c r="AW92" t="n">
         <v>0.9099319010525704</v>
@@ -15437,7 +15437,7 @@
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>67ceb45d50bd2fca87f91189</t>
+          <t>67d5fa05a81638bae93f0ff1</t>
         </is>
       </c>
       <c r="W93" t="n">
@@ -15590,7 +15590,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S94" t="n">
-        <v>94.82439945617843</v>
+        <v>94.25404233782957</v>
       </c>
       <c r="T94" t="n">
         <v>506.6926854054437</v>
@@ -15600,7 +15600,7 @@
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>67ceb45d50bd2fca87f9118d</t>
+          <t>67d5fa05a81638bae93f0ff5</t>
         </is>
       </c>
       <c r="W94" t="n">
@@ -15666,22 +15666,22 @@
         <v>44.19396755680789</v>
       </c>
       <c r="AQ94" t="n">
-        <v>10.48539945617843</v>
+        <v>9.915042337829576</v>
       </c>
       <c r="AR94" t="n">
-        <v>7.120600543821567</v>
+        <v>7.690957662170419</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.074600543821575</v>
+        <v>2.644957662170427</v>
       </c>
       <c r="AT94" t="n">
-        <v>12.43244460590999</v>
+        <v>11.75617725824301</v>
       </c>
       <c r="AU94" t="n">
-        <v>6.984747210575867</v>
+        <v>7.54422253388633</v>
       </c>
       <c r="AV94" t="n">
-        <v>2.140992728326995</v>
+        <v>2.729602640038005</v>
       </c>
       <c r="AW94" t="n">
         <v>0.9615562512841307</v>
@@ -15763,7 +15763,7 @@
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>67ceb46450bd2fca87f91514</t>
+          <t>67d5fa06a81638bae93f137c</t>
         </is>
       </c>
       <c r="W95" t="n">
@@ -15926,7 +15926,7 @@
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>67ceb46450bd2fca87f91516</t>
+          <t>67d5fa06a81638bae93f137e</t>
         </is>
       </c>
       <c r="W96" t="n">
@@ -16079,7 +16079,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S97" t="n">
-        <v>115.7533907130172</v>
+        <v>113.4676364056368</v>
       </c>
       <c r="T97" t="n">
         <v>614.2945893751389</v>
@@ -16089,7 +16089,7 @@
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>67ceb46450bd2fca87f91516</t>
+          <t>67d5fa06a81638bae93f137e</t>
         </is>
       </c>
       <c r="W97" t="n">
@@ -16155,22 +16155,22 @@
         <v>31.19520842771085</v>
       </c>
       <c r="AQ97" t="n">
-        <v>23.95539071301718</v>
+        <v>21.66963640563682</v>
       </c>
       <c r="AR97" t="n">
-        <v>9.749390713017178</v>
+        <v>7.463636405636819</v>
       </c>
       <c r="AS97" t="n">
-        <v>11.14439071301719</v>
+        <v>8.85863640563683</v>
       </c>
       <c r="AT97" t="n">
-        <v>26.09576539033223</v>
+        <v>23.60578270293124</v>
       </c>
       <c r="AU97" t="n">
-        <v>9.197191344682443</v>
+        <v>7.040900726045073</v>
       </c>
       <c r="AV97" t="n">
-        <v>10.65337658616103</v>
+        <v>8.468331028531798</v>
       </c>
       <c r="AW97" t="n">
         <v>0.9605248452053016</v>
@@ -16252,7 +16252,7 @@
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>67ceb46450bd2fca87f91518</t>
+          <t>67d5fa06a81638bae93f1380</t>
         </is>
       </c>
       <c r="W98" t="n">
@@ -16415,7 +16415,7 @@
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>67ceb46450bd2fca87f91501</t>
+          <t>67d5fa06a81638bae93f1369</t>
         </is>
       </c>
       <c r="W99" t="n">
@@ -16576,7 +16576,7 @@
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>67ceb46450bd2fca87f91501</t>
+          <t>67d5fa06a81638bae93f1369</t>
         </is>
       </c>
       <c r="W100" t="n">
@@ -16737,7 +16737,7 @@
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>67ceb46250bd2fca87f9140a</t>
+          <t>67d5fa06a81638bae93f1272</t>
         </is>
       </c>
       <c r="W101" t="n">
@@ -17482,7 +17482,7 @@
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>67ceb46650bd2fca87f915c2</t>
+          <t>67d5fa06a81638bae93f142a</t>
         </is>
       </c>
       <c r="W108" t="n">
@@ -17645,7 +17645,7 @@
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>67ceb46650bd2fca87f915c2</t>
+          <t>67d5fa06a81638bae93f142a</t>
         </is>
       </c>
       <c r="W109" t="n">
@@ -17798,7 +17798,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S110" t="n">
-        <v>132.172586445059</v>
+        <v>103.493629008867</v>
       </c>
       <c r="T110" t="n">
         <v>864.3610998661266</v>
@@ -17808,17 +17808,17 @@
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>67ceb46750bd2fca87f91603</t>
+          <t>67d5fa06a81638bae93f146b</t>
         </is>
       </c>
       <c r="W110" t="n">
-        <v>137.1306084819518</v>
+        <v>107.3758538113396</v>
       </c>
       <c r="X110" t="n">
-        <v>530</v>
+        <v>415</v>
       </c>
       <c r="Y110" t="n">
-        <v>137.8654973491514</v>
+        <v>107.9512856601846</v>
       </c>
       <c r="Z110" t="n">
         <v>818.0424386</v>
@@ -17838,58 +17838,58 @@
         <v>897.0229080843731</v>
       </c>
       <c r="AE110" t="n">
-        <v>29.08718592684981</v>
+        <v>1.077702188005036</v>
       </c>
       <c r="AF110" t="n">
-        <v>9.774742620838783</v>
+        <v>14.04430530632435</v>
       </c>
       <c r="AG110" t="n">
-        <v>24.49103381837241</v>
+        <v>2.521171632783864</v>
       </c>
       <c r="AH110" t="n">
-        <v>30.89960848195182</v>
+        <v>1.14485381133963</v>
       </c>
       <c r="AI110" t="n">
-        <v>12.21060848195181</v>
+        <v>17.54414618866038</v>
       </c>
       <c r="AJ110" t="n">
-        <v>26.97760848195178</v>
+        <v>2.77714618866041</v>
       </c>
       <c r="AK110" t="n">
-        <v>31.63449734915139</v>
+        <v>1.720285660184558</v>
       </c>
       <c r="AL110" t="n">
-        <v>12.94549734915138</v>
+        <v>16.96871433981545</v>
       </c>
       <c r="AM110" t="n">
-        <v>27.71249734915135</v>
+        <v>2.201714339815481</v>
       </c>
       <c r="AN110" t="n">
-        <v>29.77896974437913</v>
+        <v>1.619381969655334</v>
       </c>
       <c r="AO110" t="n">
-        <v>10.36303021866105</v>
+        <v>13.58366501746354</v>
       </c>
       <c r="AP110" t="n">
-        <v>25.1581866577863</v>
+        <v>1.99877837173339</v>
       </c>
       <c r="AQ110" t="n">
-        <v>25.94158644505904</v>
+        <v>2.737370991133005</v>
       </c>
       <c r="AR110" t="n">
-        <v>7.252586445059038</v>
+        <v>21.42637099113301</v>
       </c>
       <c r="AS110" t="n">
-        <v>22.01958644505901</v>
+        <v>6.659370991133045</v>
       </c>
       <c r="AT110" t="n">
-        <v>24.41997763840973</v>
+        <v>2.576809962377277</v>
       </c>
       <c r="AU110" t="n">
-        <v>5.805784858356578</v>
+        <v>17.15207412034343</v>
       </c>
       <c r="AV110" t="n">
-        <v>19.99000158421377</v>
+        <v>6.045564797266569</v>
       </c>
       <c r="AW110" t="n">
         <v>0.9976655285519782</v>
@@ -17961,7 +17961,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S111" t="n">
-        <v>147.0170415553021</v>
+        <v>115.117117444246</v>
       </c>
       <c r="T111" t="n">
         <v>975.3990845285531</v>
@@ -17971,17 +17971,17 @@
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>67ceb46750bd2fca87f91607</t>
+          <t>67d5fa06a81638bae93f146f</t>
         </is>
       </c>
       <c r="W111" t="n">
-        <v>122.4443034062236</v>
+        <v>95.87619983694866</v>
       </c>
       <c r="X111" t="n">
-        <v>530</v>
+        <v>415</v>
       </c>
       <c r="Y111" t="n">
-        <v>124.9075488198296</v>
+        <v>97.8049674721307</v>
       </c>
       <c r="Z111" t="n">
         <v>892.2377196</v>
@@ -18001,58 +18001,58 @@
         <v>812.7119173283423</v>
       </c>
       <c r="AE111" t="n">
-        <v>5.677509714863374</v>
+        <v>17.25251597798434</v>
       </c>
       <c r="AF111" t="n">
-        <v>12.02955469852027</v>
+        <v>31.11748150921871</v>
       </c>
       <c r="AG111" t="n">
-        <v>3.033614408058948</v>
+        <v>24.07349052706503</v>
       </c>
       <c r="AH111" t="n">
-        <v>6.578303406223597</v>
+        <v>19.98980016305134</v>
       </c>
       <c r="AI111" t="n">
-        <v>16.74369659377639</v>
+        <v>43.31180016305133</v>
       </c>
       <c r="AJ111" t="n">
-        <v>3.830696593776437</v>
+        <v>30.39880016305138</v>
       </c>
       <c r="AK111" t="n">
-        <v>9.041548819829558</v>
+        <v>18.0610325278693</v>
       </c>
       <c r="AL111" t="n">
-        <v>14.28045118017043</v>
+        <v>41.38303252786929</v>
       </c>
       <c r="AM111" t="n">
-        <v>1.367451180170477</v>
+        <v>28.47003252786934</v>
       </c>
       <c r="AN111" t="n">
-        <v>7.803452971388982</v>
+        <v>15.58786229598787</v>
       </c>
       <c r="AO111" t="n">
-        <v>10.25982928138233</v>
+        <v>29.73175311655408</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.082915209004535</v>
+        <v>22.54605624856015</v>
       </c>
       <c r="AQ111" t="n">
-        <v>31.15104155530214</v>
+        <v>0.748882555753994</v>
       </c>
       <c r="AR111" t="n">
-        <v>7.829041555302155</v>
+        <v>24.07088255575398</v>
       </c>
       <c r="AS111" t="n">
-        <v>20.74204155530211</v>
+        <v>11.15788255575403</v>
       </c>
       <c r="AT111" t="n">
-        <v>26.885403444757</v>
+        <v>0.646335038539342</v>
       </c>
       <c r="AU111" t="n">
-        <v>5.624796358380144</v>
+        <v>17.29379153070235</v>
       </c>
       <c r="AV111" t="n">
-        <v>16.42608715525805</v>
+        <v>8.836177038807385</v>
       </c>
       <c r="AW111" t="n">
         <v>0.978638767274337</v>
@@ -18231,7 +18231,7 @@
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>67ceb46850bd2fca87f916e1</t>
+          <t>67d5fa06a81638bae93f1549</t>
         </is>
       </c>
       <c r="W113" t="n">
@@ -18491,7 +18491,7 @@
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>67ceb46750bd2fca87f9161c</t>
+          <t>67d5fa06a81638bae93f1484</t>
         </is>
       </c>
       <c r="W115" t="n">
@@ -18654,7 +18654,7 @@
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>67ceb46750bd2fca87f9167c</t>
+          <t>67d5fa06a81638bae93f14e4</t>
         </is>
       </c>
       <c r="W116" t="n">
@@ -19205,7 +19205,7 @@
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>67ceb46750bd2fca87f91697</t>
+          <t>67d5fa06a81638bae93f14ff</t>
         </is>
       </c>
       <c r="W121" t="n">
@@ -19368,7 +19368,7 @@
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>67ceb46750bd2fca87f91687</t>
+          <t>67d5fa06a81638bae93f14ef</t>
         </is>
       </c>
       <c r="W122" t="n">
@@ -19919,7 +19919,7 @@
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>67ceb46850bd2fca87f916a7</t>
+          <t>67d5fa06a81638bae93f150f</t>
         </is>
       </c>
       <c r="W127" t="n">
@@ -20082,7 +20082,7 @@
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>67ceb46750bd2fca87f9163c</t>
+          <t>67d5fa06a81638bae93f14a4</t>
         </is>
       </c>
       <c r="W128" t="n">
@@ -20245,7 +20245,7 @@
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>67ceb46850bd2fca87f916b7</t>
+          <t>67d5fa06a81638bae93f151f</t>
         </is>
       </c>
       <c r="W129" t="n">
@@ -20408,7 +20408,7 @@
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>67ceb46850bd2fca87f916c4</t>
+          <t>67d5fa06a81638bae93f152c</t>
         </is>
       </c>
       <c r="W130" t="n">
@@ -20571,7 +20571,7 @@
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>67ceb46650bd2fca87f915f2</t>
+          <t>67d5fa06a81638bae93f145a</t>
         </is>
       </c>
       <c r="W131" t="n">
@@ -20724,7 +20724,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S132" t="n">
-        <v>141.1749857336576</v>
+        <v>139.1594536135817</v>
       </c>
       <c r="T132" t="n">
         <v>1073.223771253512</v>
@@ -20734,11 +20734,11 @@
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>67ceb46850bd2fca87f916d4</t>
+          <t>67d5fa06a81638bae93f153c</t>
         </is>
       </c>
       <c r="W132" t="n">
-        <v>137.6399898471275</v>
+        <v>135.5299990895893</v>
       </c>
       <c r="X132" t="n">
         <v>455</v>
@@ -20764,22 +20764,22 @@
         <v>1045.799775877421</v>
       </c>
       <c r="AE132" t="n">
-        <v>6.794526700284366</v>
+        <v>5.157390105436138</v>
       </c>
       <c r="AF132" t="n">
-        <v>4.500898619184817</v>
+        <v>5.96487882937322</v>
       </c>
       <c r="AG132" t="n">
-        <v>0.2899912906599224</v>
+        <v>1.247432207641065</v>
       </c>
       <c r="AH132" t="n">
-        <v>8.7569898471275</v>
+        <v>6.646999089589258</v>
       </c>
       <c r="AI132" t="n">
-        <v>6.4870101528725</v>
+        <v>8.597000910410742</v>
       </c>
       <c r="AJ132" t="n">
-        <v>0.3979898471274907</v>
+        <v>1.712000910410751</v>
       </c>
       <c r="AK132" t="n">
         <v>9.103350734336033</v>
@@ -20800,22 +20800,22 @@
         <v>0.5423636600574341</v>
       </c>
       <c r="AQ132" t="n">
-        <v>12.29198573365755</v>
+        <v>10.27645361358165</v>
       </c>
       <c r="AR132" t="n">
-        <v>2.952014266342445</v>
+        <v>4.967546386418348</v>
       </c>
       <c r="AS132" t="n">
-        <v>3.932985733657546</v>
+        <v>1.917453613581642</v>
       </c>
       <c r="AT132" t="n">
-        <v>9.537321239928891</v>
+        <v>7.973474867578852</v>
       </c>
       <c r="AU132" t="n">
-        <v>2.048203505479504</v>
+        <v>3.446645240946074</v>
       </c>
       <c r="AV132" t="n">
-        <v>2.865730413180765</v>
+        <v>1.39713324899203</v>
       </c>
       <c r="AW132" t="n">
         <v>0.9953592300261047</v>
@@ -20897,7 +20897,7 @@
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>67ceb46750bd2fca87f91668</t>
+          <t>67d5fa06a81638bae93f14d0</t>
         </is>
       </c>
       <c r="W133" t="n">
